--- a/data/trans_bre/POLIMEDICACION-Clase-trans_bre.xlsx
+++ b/data/trans_bre/POLIMEDICACION-Clase-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,34</t>
+          <t>-2,22</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,56</t>
+          <t>3,43</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,83</t>
+          <t>1,29</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>100,81%</t>
+          <t>-49,47%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>88,81%</t>
+          <t>142,81%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-58,64%</t>
+          <t>129,85%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 3,1</t>
+          <t>-4,12; -0,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,4; 5,08</t>
+          <t>0,8; 6,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,76; -1,11</t>
+          <t>-0,27; 2,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-21,01; 433,22</t>
+          <t>-74,28; -13,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,9; 231,04</t>
+          <t>12,76; 414,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-77,25; -26,08</t>
+          <t>-33,39; 498,94</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>-3,1</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-2,28</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17,77%</t>
+          <t>-58,24%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>15,71%</t>
+          <t>41,83%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-44,27%</t>
+          <t>37,68%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 2,29</t>
+          <t>-6,01; -0,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 3,24</t>
+          <t>-1,35; 4,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,12; -0,24</t>
+          <t>-1,11; 1,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-62,67; 239,89</t>
+          <t>-78,28; -21,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-31,96; 86,06</t>
+          <t>-24,09; 147,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-70,66; -5,0</t>
+          <t>-63,74; 284,73</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>7,58</t>
+          <t>-0,04</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>7,92</t>
+          <t>11,89</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>7,45</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>212,11%</t>
+          <t>-0,48%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>128,22%</t>
+          <t>357,42%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>284,94%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,67; 13,27</t>
+          <t>-3,4; 4,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,69; 13,28</t>
+          <t>5,82; 20,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 3,55</t>
+          <t>3,07; 14,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>48,4; 557,79</t>
+          <t>-34,21; 53,66</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>43,89; 271,39</t>
+          <t>75,64; 1710,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-31,56; 52,27</t>
+          <t>74,83; 788,66</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>-2,29</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-2,43</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>53,68%</t>
+          <t>-25,36%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>-5,51%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-28,87%</t>
+          <t>37,55%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 4,94</t>
+          <t>-4,94; 0,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,34; 2,17</t>
+          <t>-4,31; 2,84</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-4,68; -0,24</t>
+          <t>-1,35; 4,32</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,41; 151,64</t>
+          <t>-46,97; 3,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-33,27; 39,25</t>
+          <t>-66,43; 60,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-48,9; -2,63</t>
+          <t>-25,79; 147,16</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,53</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>10,84</t>
+          <t>11,06</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,86</t>
+          <t>4,33</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>394,15%</t>
+          <t>45,8%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>184,71%</t>
+          <t>343,59%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>43,68%</t>
+          <t>324,82%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,65; 9,41</t>
+          <t>-0,68; 6,09</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,8; 14,11</t>
+          <t>4,18; 15,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 5,95</t>
+          <t>1,48; 7,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>81,25; 1820,07</t>
+          <t>-8,71; 133,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>98,45; 299,9</t>
+          <t>99,99; 885,21</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,94; 120,23</t>
+          <t>19,46; 1611,57</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>11,49</t>
+          <t>11,95</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>11,4</t>
+          <t>11,58</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>9,95</t>
+          <t>9,86</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>1652,37%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1240,74%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>786,68%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>1656,33%</t>
         </is>
       </c>
     </row>
@@ -1042,17 +1042,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 35,67</t>
+          <t>8,89; 14,95</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,23; 13,5</t>
+          <t>9,17; 14,39</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,7; 12,24</t>
+          <t>0,0; 42,45</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1062,12 +1062,12 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>305,72; 2283,81</t>
+          <t>370,46; 4789,68</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>289,22; —</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,33</t>
+          <t>5,52</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>2,16</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>97,37%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>105,36%</t>
+          <t>152,28%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,77%</t>
+          <t>98,2%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,39; 3,91</t>
+          <t>-1,17; 1,23</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,91; 6,46</t>
+          <t>3,13; 7,36</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 1,22</t>
+          <t>1,1; 3,25</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>43,7; 181,85</t>
+          <t>-15,78; 20,8</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>69,92; 141,64</t>
+          <t>80,32; 270,34</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-12,34; 21,58</t>
+          <t>39,9; 193,46</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/POLIMEDICACION-Clase-trans_bre.xlsx
+++ b/data/trans_bre/POLIMEDICACION-Clase-trans_bre.xlsx
@@ -528,7 +528,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumir &gt;4 medicamentos de la lista completa de medicamentos</t>
+          <t>Polimedicación (5 o más medicamentos)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_bre/POLIMEDICACION-Clase-trans_bre.xlsx
+++ b/data/trans_bre/POLIMEDICACION-Clase-trans_bre.xlsx
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,22</t>
+          <t>-1,85</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-49,47%</t>
+          <t>-47,44%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,12; -0,5</t>
+          <t>-3,48; -0,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,8; 6,24</t>
+          <t>1,02; 6,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-74,28; -13,39</t>
+          <t>-71,51; -6,43</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>12,76; 414,87</t>
+          <t>18,62; 444,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-3,1</t>
+          <t>-2,81</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-58,24%</t>
+          <t>-52,19%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-6,01; -0,98</t>
+          <t>-5,55; -0,41</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 4,79</t>
+          <t>-1,24; 4,9</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -737,12 +737,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-78,28; -21,23</t>
+          <t>-77,22; -7,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-24,09; 147,92</t>
+          <t>-24,47; 163,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,48%</t>
+          <t>15,85%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 4,26</t>
+          <t>-2,29; 4,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,82; 20,73</t>
+          <t>6,15; 20,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-34,21; 53,66</t>
+          <t>-27,14; 71,1</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>75,64; 1710,01</t>
+          <t>86,44; 1723,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,29</t>
+          <t>-2,08</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-25,36%</t>
+          <t>-25,04%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,94; 0,21</t>
+          <t>-4,35; 0,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 2,84</t>
+          <t>-4,38; 2,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-46,97; 3,97</t>
+          <t>-45,49; 7,17</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-66,43; 60,12</t>
+          <t>-64,9; 59,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -924,7 +924,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,95</t>
+          <t>2,42</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>45,8%</t>
+          <t>38,48%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -962,12 +962,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 6,09</t>
+          <t>-0,78; 5,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>4,18; 15,88</t>
+          <t>3,7; 15,56</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -977,12 +977,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,71; 133,8</t>
+          <t>-10,99; 133,52</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>99,99; 885,21</t>
+          <t>92,91; 812,61</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>11,95</t>
+          <t>10,22</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1652,37%</t>
+          <t>2524,97%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1042,12 +1042,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,89; 14,95</t>
+          <t>7,84; 12,76</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,17; 14,39</t>
+          <t>9,06; 14,22</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>370,46; 4789,68</t>
+          <t>340,96; 4725,47</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1122,12 +1122,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 1,23</t>
+          <t>-0,92; 1,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3,13; 7,36</t>
+          <t>2,8; 7,48</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-15,78; 20,8</t>
+          <t>-13,47; 19,08</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>80,32; 270,34</t>
+          <t>75,29; 272,98</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">

--- a/data/trans_bre/POLIMEDICACION-Clase-trans_bre.xlsx
+++ b/data/trans_bre/POLIMEDICACION-Clase-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>3,79</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1,29</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>-1,85</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>3,43</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,29</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>156,67%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>129,85%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>-47,44%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>142,81%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>129,85%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>1,38; 6,98</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-0,27; 2,76</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>-3,48; -0,25</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>1,02; 6,54</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,27; 2,76</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>31,19; 492,02</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-33,39; 498,94</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>-71,51; -6,43</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>18,62; 444,3</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-33,39; 498,94</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>1,71</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0,46</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>-2,81</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,9</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,46</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>39,45%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>37,68%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>-52,19%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>41,83%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>37,68%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-1,22; 4,56</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-1,11; 1,83</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>-5,55; -0,41</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-1,24; 4,9</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,11; 1,83</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>-25,07; 151,68</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-63,74; 284,73</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>-77,22; -7,06</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-24,47; 163,5</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-63,74; 284,73</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>8,48</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>7,45</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>1,2</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>11,89</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>7,45</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>132,37%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>284,94%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>15,85%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>357,42%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>284,94%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>3,19; 14,48</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>3,07; 14,07</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>-2,29; 4,77</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>6,15; 20,19</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>3,07; 14,07</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>27,51; 280,83</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>74,83; 788,66</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>-27,14; 71,1</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>86,44; 1723,64</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>74,83; 788,66</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>2,16</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1,58</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>-2,08</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,29</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,58</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>43,98%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>37,55%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>-25,04%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-5,51%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>37,55%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-0,12; 4,65</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-1,35; 4,32</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>-4,35; 0,57</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-4,38; 2,9</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-1,35; 4,32</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>-4,02; 120,45</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>-25,79; 147,16</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>-45,49; 7,17</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-64,9; 59,11</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-25,79; 147,16</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>12,76</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4,33</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>2,42</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>11,06</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>4,33</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>447,83%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>324,82%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>38,48%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>343,59%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>324,82%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>9,12; 16,31</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1,48; 7,4</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>-0,78; 5,65</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>3,7; 15,56</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>1,48; 7,4</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>189,07; 1037,88</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>19,46; 1611,57</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>-10,99; 133,52</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>92,91; 812,61</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>19,46; 1611,57</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>11,47</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>9,86</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>10,22</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>11,58</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>9,86</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>1212,27%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>2524,97%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>1240,74%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1042,27 +1042,27 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>8,95; 14,04</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 42,45</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>7,84; 12,76</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>9,06; 14,22</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 42,45</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>354,96; 4517,92</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>340,96; 4725,47</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>6,23</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>2,16</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>0,12</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>5,52</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>2,16</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>158,39%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>98,2%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>1,97%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>152,28%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>98,2%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>4,95; 7,55</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1,1; 3,25</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>-0,92; 1,03</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>2,8; 7,48</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>1,1; 3,25</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>107,32; 227,29</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>39,9; 193,46</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>-13,47; 19,08</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>75,29; 272,98</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>39,9; 193,46</t>
         </is>
       </c>
     </row>
